--- a/gfconf/conf/item_attr.xlsx
+++ b/gfconf/conf/item_attr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myproject\gamefun\gfconf\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7C0B928C-1258-434E-87EB-B1A35CEC4F46}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B0912C3F-B071-4245-9969-E7694DCC6E88}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,7 +448,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
   <si>
     <t>编号</t>
   </si>
@@ -505,10 +505,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>100000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>wishTower</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -565,49 +561,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>200001</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>300001</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>300002</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>200002</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>200003</t>
-  </si>
-  <si>
-    <t>200004</t>
-  </si>
-  <si>
-    <t>200005</t>
-  </si>
-  <si>
-    <t>200006</t>
-  </si>
-  <si>
-    <t>200007</t>
-  </si>
-  <si>
     <t>等级</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>level</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -884,10 +842,6 @@
   </si>
   <si>
     <t>shunRate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1067,7 +1021,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1100,6 +1054,8 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1408,7 +1364,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1452,94 +1408,94 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD1" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF1" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG1" s="8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15.6" x14ac:dyDescent="0.25">
@@ -1553,99 +1509,99 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="K2" s="10" t="s">
+      <c r="AE2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AF2" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AG2" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG2" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>13</v>
+      <c r="A3" s="12">
+        <v>100000</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>12</v>
@@ -1653,14 +1609,14 @@
       <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>40</v>
+      <c r="D3" s="13">
+        <v>1</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>13</v>
+      <c r="A4" s="12">
+        <v>100000</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>12</v>
@@ -1668,14 +1624,14 @@
       <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>97</v>
+      <c r="D4" s="13">
+        <v>2</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>28</v>
+      <c r="A5" s="12">
+        <v>200001</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>7</v>
@@ -1683,8 +1639,8 @@
       <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>40</v>
+      <c r="D5" s="13">
+        <v>1</v>
       </c>
       <c r="E5" s="5"/>
       <c r="H5">
@@ -1692,8 +1648,8 @@
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>28</v>
+      <c r="A6" s="13">
+        <v>200001</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
@@ -1701,8 +1657,8 @@
       <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>97</v>
+      <c r="D6" s="13">
+        <v>2</v>
       </c>
       <c r="E6" s="5"/>
       <c r="H6">
@@ -1710,122 +1666,122 @@
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>31</v>
+      <c r="A7" s="12">
+        <v>200002</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>32</v>
+      <c r="A8" s="12">
+        <v>200003</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>33</v>
+      <c r="A9" s="12">
+        <v>200004</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>40</v>
+      <c r="D9" s="13">
+        <v>1</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>34</v>
+      <c r="A10" s="12">
+        <v>200005</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>35</v>
+      <c r="A11" s="12">
+        <v>200006</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>39</v>
+        <v>17</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>36</v>
+      <c r="A12" s="12">
+        <v>200007</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>19</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>29</v>
+      <c r="A13" s="12">
+        <v>300001</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1</v>
       </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>30</v>
+      <c r="A14" s="12">
+        <v>300002</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1</v>
       </c>
       <c r="E14" s="5"/>
     </row>

--- a/gfconf/conf/item_attr.xlsx
+++ b/gfconf/conf/item_attr.xlsx
@@ -1,34 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myproject\gamefun\gfconf\conf\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{00EB53A8-B2AF-4D76-B0DC-610062DD1DC4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
     <author>Administrator</author>
     <author>Cinky</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>ItemId</t>
         </r>
@@ -53,7 +59,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">1~19999
 </t>
@@ -63,7 +69,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Id</t>
         </r>
@@ -80,7 +86,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
    </t>
@@ -97,7 +103,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">1~400
   </t>
@@ -114,7 +120,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">451~1000
 </t>
@@ -132,7 +138,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">   </t>
         </r>
@@ -148,7 +154,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">1001~1500
    </t>
@@ -165,7 +171,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">1501~2000
 </t>
@@ -183,7 +189,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">   </t>
         </r>
@@ -199,7 +205,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">2001~3000
 </t>
@@ -216,7 +222,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">3001~4000
 </t>
@@ -234,7 +240,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -250,7 +256,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>4001~5000</t>
         </r>
@@ -267,7 +273,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">    </t>
         </r>
@@ -283,7 +289,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">5001~6000
 </t>
@@ -301,7 +307,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -317,7 +323,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>100000</t>
         </r>
@@ -334,14 +340,14 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1">
+    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -363,7 +369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="2">
+    <comment ref="AD1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -385,7 +391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="2">
+    <comment ref="AF1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -407,7 +413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="2">
+    <comment ref="AG1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -435,7 +441,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="98">
   <si>
     <t>编号</t>
   </si>
@@ -809,18 +815,32 @@
   <si>
     <t>弓箭手</t>
   </si>
+  <si>
+    <t>物品种类</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ategory</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -855,123 +875,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -979,27 +913,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1008,198 +934,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1255,255 +995,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1543,62 +1041,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1885,53 +1345,52 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AK15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="21.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="11.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="5.88333333333333" customWidth="1"/>
-    <col min="6" max="8" width="19.125" customWidth="1"/>
-    <col min="9" max="9" width="19.125" customWidth="1"/>
-    <col min="10" max="10" width="10.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="9.66666666666667" customWidth="1"/>
-    <col min="12" max="12" width="10.1083333333333" customWidth="1"/>
-    <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="13.8833333333333" customWidth="1"/>
-    <col min="17" max="17" width="15.1083333333333" customWidth="1"/>
-    <col min="18" max="18" width="13.1083333333333" customWidth="1"/>
-    <col min="19" max="19" width="16.775" customWidth="1"/>
-    <col min="20" max="20" width="14.1083333333333" customWidth="1"/>
-    <col min="21" max="21" width="12.4416666666667" customWidth="1"/>
-    <col min="22" max="22" width="8.88333333333333" customWidth="1"/>
-    <col min="23" max="23" width="14" customWidth="1"/>
-    <col min="24" max="24" width="16.1083333333333" customWidth="1"/>
-    <col min="25" max="25" width="16.6666666666667" customWidth="1"/>
-    <col min="27" max="27" width="16.3333333333333" customWidth="1"/>
-    <col min="28" max="28" width="14.6666666666667" customWidth="1"/>
-    <col min="29" max="29" width="12.4416666666667" customWidth="1"/>
-    <col min="30" max="30" width="15.1083333333333" customWidth="1"/>
-    <col min="31" max="31" width="12.8833333333333" customWidth="1"/>
-    <col min="34" max="34" width="13.8833333333333" customWidth="1"/>
-    <col min="35" max="35" width="11.6666666666667" customWidth="1"/>
-    <col min="36" max="36" width="15" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="7" max="10" width="19.109375" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="13.88671875" customWidth="1"/>
+    <col min="18" max="18" width="15.109375" customWidth="1"/>
+    <col min="19" max="19" width="13.109375" customWidth="1"/>
+    <col min="20" max="20" width="16.77734375" customWidth="1"/>
+    <col min="21" max="21" width="14.109375" customWidth="1"/>
+    <col min="22" max="22" width="12.44140625" customWidth="1"/>
+    <col min="23" max="23" width="8.88671875" customWidth="1"/>
+    <col min="24" max="24" width="14" customWidth="1"/>
+    <col min="25" max="25" width="16.109375" customWidth="1"/>
+    <col min="26" max="26" width="16.6640625" customWidth="1"/>
+    <col min="28" max="28" width="16.33203125" customWidth="1"/>
+    <col min="29" max="29" width="14.6640625" customWidth="1"/>
+    <col min="30" max="30" width="12.44140625" customWidth="1"/>
+    <col min="31" max="31" width="15.109375" customWidth="1"/>
+    <col min="32" max="32" width="12.88671875" customWidth="1"/>
+    <col min="35" max="35" width="13.88671875" customWidth="1"/>
+    <col min="36" max="36" width="11.6640625" customWidth="1"/>
+    <col min="37" max="37" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:37">
+    <row r="1" spans="1:38" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1944,107 +1403,110 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="X1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="Y1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AB1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AC1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AD1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AE1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AK1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AL1" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:37">
+    <row r="2" spans="1:38" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
@@ -2057,107 +1519,110 @@
       <c r="D2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="O2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="P2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="Q2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="R2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="S2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="T2" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="U2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="V2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="W2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="X2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="Y2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="Z2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="Z2" s="14" t="s">
+      <c r="AA2" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AB2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AC2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AC2" s="13" t="s">
+      <c r="AD2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="AD2" s="13" t="s">
+      <c r="AE2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="AE2" s="13" t="s">
+      <c r="AF2" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="AF2" s="14" t="s">
+      <c r="AG2" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="AG2" s="14" t="s">
+      <c r="AH2" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="AH2" s="14" t="s">
+      <c r="AI2" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AI2" s="14" t="s">
+      <c r="AJ2" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="AJ2" s="14" t="s">
+      <c r="AK2" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AK2" s="14" t="s">
+      <c r="AL2" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:9">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>100000</v>
       </c>
@@ -2171,12 +1636,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
-    <row r="4" ht="14.25" spans="1:9">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>100000</v>
       </c>
@@ -2190,12 +1656,13 @@
         <v>2</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
-    <row r="5" ht="14.25" spans="1:12">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>200001</v>
       </c>
@@ -2209,17 +1676,18 @@
         <v>1</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-      <c r="L5">
+      <c r="J5" s="9"/>
+      <c r="M5">
         <v>1000</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:12">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>200001</v>
       </c>
@@ -2233,15 +1701,16 @@
         <v>2</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
-      <c r="L6">
+      <c r="J6" s="9"/>
+      <c r="M6">
         <v>1100</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:9">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>200002</v>
       </c>
@@ -2255,12 +1724,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
-    <row r="8" ht="14.25" spans="1:9">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>200003</v>
       </c>
@@ -2274,12 +1744,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
     </row>
-    <row r="9" ht="14.25" spans="1:9">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>200004</v>
       </c>
@@ -2293,12 +1764,13 @@
         <v>1</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
     </row>
-    <row r="10" ht="14.25" spans="1:9">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>200005</v>
       </c>
@@ -2312,12 +1784,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
-    <row r="11" ht="14.25" spans="1:9">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>200006</v>
       </c>
@@ -2331,12 +1804,13 @@
         <v>1</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
-    <row r="12" customFormat="1" ht="14.25" spans="1:9">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>200007</v>
       </c>
@@ -2350,14 +1824,15 @@
         <v>1</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
     </row>
-    <row r="13" ht="14.25" spans="1:9">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>200007</v>
       </c>
@@ -2371,12 +1846,13 @@
         <v>2</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
     </row>
-    <row r="14" ht="14.25" spans="1:9">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>300001</v>
       </c>
@@ -2390,12 +1866,13 @@
         <v>1</v>
       </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
     </row>
-    <row r="15" ht="14.25" spans="1:9">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>300002</v>
       </c>
@@ -2409,15 +1886,16 @@
         <v>1</v>
       </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/gfconf/conf/item_attr.xlsx
+++ b/gfconf/conf/item_attr.xlsx
@@ -1,39 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myproject\gamefun\gfconf\conf\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B0912C3F-B071-4245-9969-E7694DCC6E88}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="新表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
+    <author>Administrator</author>
     <author>Cinky</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>ItemId</t>
         </r>
@@ -42,7 +37,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>范围</t>
@@ -51,7 +45,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：</t>
@@ -60,7 +53,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">1~19999
 </t>
@@ -70,7 +63,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Id</t>
         </r>
@@ -79,7 +72,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>范围规划</t>
@@ -88,7 +80,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
    </t>
@@ -97,7 +89,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>将魂：</t>
@@ -106,7 +97,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">1~400
   </t>
@@ -115,7 +106,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>消耗品：</t>
@@ -124,7 +114,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">451~1000
 </t>
@@ -133,7 +123,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">【神器】
@@ -143,7 +132,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">   </t>
         </r>
@@ -151,7 +140,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>兵器：</t>
@@ -160,7 +148,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">1001~1500
    </t>
@@ -169,7 +157,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>宝物：</t>
@@ -178,7 +165,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">1501~2000
 </t>
@@ -187,7 +174,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">【装备】
@@ -197,7 +183,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">   </t>
         </r>
@@ -205,7 +191,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>装备：</t>
@@ -214,7 +199,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">2001~3000
 </t>
@@ -223,7 +208,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>制作卷：</t>
@@ -232,7 +216,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">3001~4000
 </t>
@@ -241,7 +225,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">【碎片】
@@ -251,7 +234,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -259,7 +242,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>制作卷碎片：</t>
@@ -268,7 +250,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>4001~5000</t>
         </r>
@@ -276,7 +258,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -286,7 +267,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">    </t>
         </r>
@@ -294,7 +275,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>装备碎片：</t>
@@ -303,7 +283,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">5001~6000
 </t>
@@ -312,7 +292,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">【资源】
@@ -322,7 +301,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -330,7 +309,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>≥</t>
@@ -339,7 +317,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>100000</t>
         </r>
@@ -347,7 +325,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -357,22 +334,42 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="1" shapeId="0" xr:uid="{727EA68A-969B-4CC8-AE41-356CB7901699}">
+    <comment ref="F1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+200001=2,100000=2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC1" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Cinky:</t>
@@ -380,9 +377,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -390,15 +385,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="1" shapeId="0" xr:uid="{BB4A3AD0-3091-4324-B3D4-C55C9167D1FD}">
+    <comment ref="AE1" authorId="2">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Cinky:</t>
@@ -406,9 +399,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -416,15 +407,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="1" shapeId="0" xr:uid="{88B614DD-4EF9-4FDE-AC5B-011621D6A2DC}">
+    <comment ref="AF1" authorId="2">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Cinky:</t>
@@ -432,9 +421,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -448,7 +435,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
   <si>
     <t>编号</t>
   </si>
@@ -459,9 +446,108 @@
     <t>物品名称</t>
   </si>
   <si>
+    <t>等级</t>
+  </si>
+  <si>
     <t>素材编号</t>
   </si>
   <si>
+    <t>解锁条件</t>
+  </si>
+  <si>
+    <t>升级需要时间（秒）</t>
+  </si>
+  <si>
+    <t>开始升级时间</t>
+  </si>
+  <si>
+    <t>升级剩余时间</t>
+  </si>
+  <si>
+    <t>攻击目标</t>
+  </si>
+  <si>
+    <t>射程</t>
+  </si>
+  <si>
+    <t>生命</t>
+  </si>
+  <si>
+    <t>伤害值</t>
+  </si>
+  <si>
+    <t>攻击速度</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
+    <t>死亡附加伤害</t>
+  </si>
+  <si>
+    <t>建筑伤害</t>
+  </si>
+  <si>
+    <t>部署时间</t>
+  </si>
+  <si>
+    <t>冲锋伤害</t>
+  </si>
+  <si>
+    <t>范围伤害</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>持续时间</t>
+  </si>
+  <si>
+    <t>出兵速度</t>
+  </si>
+  <si>
+    <t>生产速度</t>
+  </si>
+  <si>
+    <t>护盾生命值</t>
+  </si>
+  <si>
+    <t>宽度</t>
+  </si>
+  <si>
+    <t>登场伤害</t>
+  </si>
+  <si>
+    <t>突袭伤害</t>
+  </si>
+  <si>
+    <t>突袭范围</t>
+  </si>
+  <si>
+    <t>跃进伤害</t>
+  </si>
+  <si>
+    <t>跃进范围</t>
+  </si>
+  <si>
+    <t>范围</t>
+  </si>
+  <si>
+    <t>提速</t>
+  </si>
+  <si>
+    <t>眩晕持续时间</t>
+  </si>
+  <si>
+    <t>每秒治疗量</t>
+  </si>
+  <si>
+    <t>暴击率</t>
+  </si>
+  <si>
+    <t>闪避率</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -471,17 +557,204 @@
     <t>name</t>
   </si>
   <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>avatarId</t>
+  </si>
+  <si>
+    <t>unlockCondition</t>
+  </si>
+  <si>
+    <t>upgradeNeedTime</t>
+  </si>
+  <si>
+    <t>beginUpgradeTime</t>
+  </si>
+  <si>
+    <t>leftUpgradeTime</t>
+  </si>
+  <si>
+    <t>hitTarget</t>
+  </si>
+  <si>
+    <t>hitRange</t>
+  </si>
+  <si>
+    <t>hitpoints</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>hitSpeed</t>
+  </si>
+  <si>
+    <t>moveSpeed</t>
+  </si>
+  <si>
+    <t>deathDamage</t>
+  </si>
+  <si>
+    <t>buildDamage</t>
+  </si>
+  <si>
+    <t>deployTime</t>
+  </si>
+  <si>
+    <t>chargeDamage</t>
+  </si>
+  <si>
+    <t>areaDamage</t>
+  </si>
+  <si>
+    <t>armyCount</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>spawnSpeed</t>
+  </si>
+  <si>
+    <t>produceSpeed</t>
+  </si>
+  <si>
+    <t>shieldHitpoints</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>idth</t>
+    </r>
+  </si>
+  <si>
+    <t>spawnDamage</t>
+  </si>
+  <si>
+    <t>dashDamage</t>
+  </si>
+  <si>
+    <t>dashRange</t>
+  </si>
+  <si>
+    <t>jumpDamage</t>
+  </si>
+  <si>
+    <t>jumpRange</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>adius</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>oost</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tunDuration</t>
+    </r>
+  </si>
+  <si>
+    <t>healingSec</t>
+  </si>
+  <si>
+    <t>doubleHitRate</t>
+  </si>
+  <si>
+    <t>shunRate</t>
+  </si>
+  <si>
+    <t>roleLevel</t>
+  </si>
+  <si>
+    <t>角色等级</t>
+  </si>
+  <si>
     <t>mainBase</t>
   </si>
   <si>
     <t>主基地</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
     <t>defenseTowerLeft</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御塔1</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>defenseTower</t>
     </r>
     <r>
@@ -489,371 +762,65 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Right</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色等级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>roleLevel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御塔2</t>
   </si>
   <si>
     <t>wishTower</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>许愿池</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceTower</t>
   </si>
   <si>
     <t>联盟中心</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>allianceTower</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>materialWorkshop</t>
   </si>
   <si>
     <t>作坊</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>materialWorkshop</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>researchCenter</t>
   </si>
   <si>
     <t>研究院</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>researchCenter</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御塔1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御塔2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>200001=2,100000=2</t>
+  </si>
+  <si>
+    <t>barbarian</t>
   </si>
   <si>
     <t>野蛮人</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>barbarian</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>archer</t>
   </si>
   <si>
     <t>弓箭手</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>archer</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击目标</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>射程</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击速度</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动速度</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡附加伤害</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑伤害</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>部署时间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲锋伤害</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围伤害</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续时间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>出兵速度</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产速度</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾生命值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>宽度</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>登场伤害</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>突袭伤害</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>突袭范围</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>跃进伤害</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>跃进范围</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>提速</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>眩晕持续时间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每秒治疗量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击率</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避率</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>hitpoints</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>hitRange</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>hitTarget</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>hitSpeed</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>moveSpeed</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>deathDamage</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buildDamage</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>deployTime</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>chargeDamage</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaDamage</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>armyCount</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>duration</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>adius</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>oost</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tunDuration</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>idth</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>healingSec</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>spawnSpeed</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>shieldHitpoints</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>produceSpeed</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dashDamage</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dashRange</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>spawnDamage</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>jumpDamage</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>jumpRange</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>doubleHitRate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>shunRate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>avatarId</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -866,86 +833,173 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -954,12 +1008,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -987,6 +1227,17 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -999,29 +1250,260 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1031,43 +1513,92 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1354,50 +1885,53 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AK15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" customWidth="1"/>
-    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="5.88333333333333" customWidth="1"/>
+    <col min="6" max="8" width="19.125" customWidth="1"/>
+    <col min="9" max="9" width="19.125" customWidth="1"/>
+    <col min="10" max="10" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="9.66666666666667" customWidth="1"/>
+    <col min="12" max="12" width="10.1083333333333" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="13.8833333333333" customWidth="1"/>
+    <col min="17" max="17" width="15.1083333333333" customWidth="1"/>
+    <col min="18" max="18" width="13.1083333333333" customWidth="1"/>
+    <col min="19" max="19" width="16.775" customWidth="1"/>
+    <col min="20" max="20" width="14.1083333333333" customWidth="1"/>
+    <col min="21" max="21" width="12.4416666666667" customWidth="1"/>
+    <col min="22" max="22" width="8.88333333333333" customWidth="1"/>
+    <col min="23" max="23" width="14" customWidth="1"/>
+    <col min="24" max="24" width="16.1083333333333" customWidth="1"/>
+    <col min="25" max="25" width="16.6666666666667" customWidth="1"/>
+    <col min="27" max="27" width="16.3333333333333" customWidth="1"/>
+    <col min="28" max="28" width="14.6666666666667" customWidth="1"/>
+    <col min="29" max="29" width="12.4416666666667" customWidth="1"/>
+    <col min="30" max="30" width="15.1083333333333" customWidth="1"/>
+    <col min="31" max="31" width="12.8833333333333" customWidth="1"/>
+    <col min="34" max="34" width="13.8833333333333" customWidth="1"/>
+    <col min="35" max="35" width="11.6666666666667" customWidth="1"/>
+    <col min="36" max="36" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="1" ht="15" spans="1:37">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1408,387 +1942,482 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="AC1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="AE1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="AF1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="AG1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="AH1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="AI1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="AK1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="8" t="s">
+    </row>
+    <row r="2" ht="16.5" spans="1:37">
+      <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="E2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="J2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="K2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="L2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="M2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="N2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="O2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="P2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="Q2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="R2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="S2" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="T2" s="13" t="s">
         <v>56</v>
       </c>
+      <c r="U2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG2" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI2" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK2" s="14" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="3" t="s">
+    <row r="3" ht="14.25" spans="1:9">
+      <c r="A3" s="7">
+        <v>100000</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:9">
+      <c r="A4" s="7">
+        <v>100000</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:12">
+      <c r="A5" s="7">
+        <v>200001</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="L5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:12">
+      <c r="A6" s="7">
+        <v>200001</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="L6">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:9">
+      <c r="A7" s="7">
+        <v>200002</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:9">
+      <c r="A8" s="7">
+        <v>200003</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:9">
+      <c r="A9" s="7">
+        <v>200004</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:9">
+      <c r="A10" s="7">
+        <v>200005</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y2" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG2" s="7" t="s">
-        <v>84</v>
-      </c>
+      <c r="C10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
-        <v>100000</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="13">
+    <row r="11" ht="14.25" spans="1:9">
+      <c r="A11" s="7">
+        <v>200006</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="7">
         <v>1</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
-        <v>100000</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="13">
+    <row r="12" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A12" s="7">
+        <v>200007</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:9">
+      <c r="A13" s="7">
+        <v>200007</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="7">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
-        <v>200001</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="13">
+    <row r="14" ht="14.25" spans="1:9">
+      <c r="A14" s="7">
+        <v>300001</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="7">
         <v>1</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="H5">
-        <v>1000</v>
-      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
-        <v>200001</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="13">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="H6">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
-        <v>200002</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="13">
+    <row r="15" ht="14.25" spans="1:9">
+      <c r="A15" s="7">
+        <v>300002</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="7">
         <v>1</v>
       </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
-        <v>200003</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="13">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>200004</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="13">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
-        <v>200005</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="13">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
-        <v>200006</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="13">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
-        <v>200007</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="13">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
-        <v>300001</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
-        <v>300002</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="13">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/gfconf/conf/item_attr.xlsx
+++ b/gfconf/conf/item_attr.xlsx
@@ -1,40 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myproject\gamefun\gfconf\conf\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{00EB53A8-B2AF-4D76-B0DC-610062DD1DC4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="新表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
     <author>Administrator</author>
     <author>Cinky</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>ItemId</t>
         </r>
@@ -59,7 +53,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">1~19999
 </t>
@@ -69,7 +63,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Id</t>
         </r>
@@ -86,7 +80,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
    </t>
@@ -103,7 +97,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">1~400
   </t>
@@ -120,7 +114,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">451~1000
 </t>
@@ -138,7 +132,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">   </t>
         </r>
@@ -154,7 +148,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">1001~1500
    </t>
@@ -171,7 +165,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">1501~2000
 </t>
@@ -189,7 +183,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">   </t>
         </r>
@@ -205,7 +199,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">2001~3000
 </t>
@@ -222,7 +216,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">3001~4000
 </t>
@@ -240,7 +234,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -256,7 +250,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>4001~5000</t>
         </r>
@@ -273,7 +267,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">    </t>
         </r>
@@ -289,7 +283,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">5001~6000
 </t>
@@ -307,7 +301,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -323,7 +317,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>100000</t>
         </r>
@@ -340,14 +334,14 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -369,7 +363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="AD1" authorId="2">
       <text>
         <r>
           <rPr>
@@ -391,7 +385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="AF1" authorId="2">
       <text>
         <r>
           <rPr>
@@ -413,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="AG1" authorId="2">
       <text>
         <r>
           <rPr>
@@ -441,7 +435,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
   <si>
     <t>编号</t>
   </si>
@@ -455,6 +449,9 @@
     <t>等级</t>
   </si>
   <si>
+    <t>物品种类</t>
+  </si>
+  <si>
     <t>素材编号</t>
   </si>
   <si>
@@ -564,6 +561,26 @@
   </si>
   <si>
     <t>level</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ategory</t>
+    </r>
   </si>
   <si>
     <t>avatarId</t>
@@ -815,32 +832,18 @@
   <si>
     <t>弓箭手</t>
   </si>
-  <si>
-    <t>物品种类</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ategory</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -856,76 +859,182 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -934,12 +1043,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -995,13 +1290,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1011,54 +1548,95 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1345,52 +1923,53 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="7" max="10" width="19.109375" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="5.88333333333333" customWidth="1"/>
+    <col min="5" max="5" width="11.6666666666667" customWidth="1"/>
+    <col min="7" max="10" width="19.1083333333333" customWidth="1"/>
+    <col min="11" max="11" width="10.3333333333333" customWidth="1"/>
+    <col min="12" max="12" width="9.66666666666667" customWidth="1"/>
+    <col min="13" max="13" width="10.1083333333333" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="13.88671875" customWidth="1"/>
-    <col min="18" max="18" width="15.109375" customWidth="1"/>
-    <col min="19" max="19" width="13.109375" customWidth="1"/>
-    <col min="20" max="20" width="16.77734375" customWidth="1"/>
-    <col min="21" max="21" width="14.109375" customWidth="1"/>
-    <col min="22" max="22" width="12.44140625" customWidth="1"/>
-    <col min="23" max="23" width="8.88671875" customWidth="1"/>
+    <col min="17" max="17" width="13.8833333333333" customWidth="1"/>
+    <col min="18" max="18" width="15.1083333333333" customWidth="1"/>
+    <col min="19" max="19" width="13.1083333333333" customWidth="1"/>
+    <col min="20" max="20" width="16.775" customWidth="1"/>
+    <col min="21" max="21" width="14.1083333333333" customWidth="1"/>
+    <col min="22" max="22" width="12.4416666666667" customWidth="1"/>
+    <col min="23" max="23" width="8.88333333333333" customWidth="1"/>
     <col min="24" max="24" width="14" customWidth="1"/>
-    <col min="25" max="25" width="16.109375" customWidth="1"/>
-    <col min="26" max="26" width="16.6640625" customWidth="1"/>
-    <col min="28" max="28" width="16.33203125" customWidth="1"/>
-    <col min="29" max="29" width="14.6640625" customWidth="1"/>
-    <col min="30" max="30" width="12.44140625" customWidth="1"/>
-    <col min="31" max="31" width="15.109375" customWidth="1"/>
-    <col min="32" max="32" width="12.88671875" customWidth="1"/>
-    <col min="35" max="35" width="13.88671875" customWidth="1"/>
-    <col min="36" max="36" width="11.6640625" customWidth="1"/>
+    <col min="25" max="25" width="16.1083333333333" customWidth="1"/>
+    <col min="26" max="26" width="16.6666666666667" customWidth="1"/>
+    <col min="28" max="28" width="16.3333333333333" customWidth="1"/>
+    <col min="29" max="29" width="14.6666666666667" customWidth="1"/>
+    <col min="30" max="30" width="12.4416666666667" customWidth="1"/>
+    <col min="31" max="31" width="15.1083333333333" customWidth="1"/>
+    <col min="32" max="32" width="12.8833333333333" customWidth="1"/>
+    <col min="35" max="35" width="13.8833333333333" customWidth="1"/>
+    <col min="36" max="36" width="11.6666666666667" customWidth="1"/>
     <col min="37" max="37" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="1" ht="15" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1403,499 +1982,499 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>96</v>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AE1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AF1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AH1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AI1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AK1" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="AL1" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" ht="16.5" spans="1:38">
+      <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="H2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="I2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="J2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="L2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="M2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="N2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="O2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="P2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="Q2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="R2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="S2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="T2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="U2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="V2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="W2" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="X2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AA2" s="14" t="s">
+      <c r="Y2" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="Z2" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="AC2" s="13" t="s">
+      <c r="AA2" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AD2" s="13" t="s">
+      <c r="AB2" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="AE2" s="13" t="s">
+      <c r="AC2" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="AF2" s="13" t="s">
+      <c r="AD2" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="AG2" s="14" t="s">
+      <c r="AE2" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="AH2" s="14" t="s">
+      <c r="AF2" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="AI2" s="14" t="s">
+      <c r="AG2" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="AJ2" s="14" t="s">
+      <c r="AH2" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="AK2" s="14" t="s">
+      <c r="AI2" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="AL2" s="14" t="s">
+      <c r="AJ2" s="15" t="s">
         <v>73</v>
       </c>
+      <c r="AK2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL2" s="15" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+    <row r="3" ht="14.25" spans="1:10">
+      <c r="A3" s="9">
         <v>100000</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="B3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="9">
         <v>1</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+    <row r="4" ht="14.25" spans="1:10">
+      <c r="A4" s="9">
         <v>100000</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="B4" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="9">
         <v>2</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+    <row r="5" ht="14.25" spans="1:13">
+      <c r="A5" s="9">
         <v>200001</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="B5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="9">
         <v>1</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
       <c r="M5">
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+    <row r="6" ht="14.25" spans="1:13">
+      <c r="A6" s="9">
         <v>200001</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="B6" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="9">
         <v>2</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
       <c r="M6">
         <v>1100</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+    <row r="7" ht="14.25" spans="1:10">
+      <c r="A7" s="9">
         <v>200002</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="B7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="9">
         <v>1</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+    <row r="8" ht="14.25" spans="1:10">
+      <c r="A8" s="9">
         <v>200003</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="B8" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="9">
         <v>1</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+    <row r="9" ht="14.25" spans="1:10">
+      <c r="A9" s="9">
         <v>200004</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="B9" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="9">
         <v>1</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+    <row r="10" ht="14.25" spans="1:10">
+      <c r="A10" s="9">
         <v>200005</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="B10" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="9">
         <v>1</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+    <row r="11" ht="14.25" spans="1:10">
+      <c r="A11" s="9">
         <v>200006</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="B11" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="9">
         <v>1</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+    <row r="12" ht="14.25" spans="1:10">
+      <c r="A12" s="9">
         <v>200007</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="B12" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="9">
         <v>1</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:10">
+      <c r="A13" s="9">
+        <v>200007</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="C13" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="9">
+        <v>2</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <v>200007</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="7">
-        <v>2</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+    <row r="14" ht="14.25" spans="1:10">
+      <c r="A14" s="9">
+        <v>300001</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <v>300001</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="7">
+    <row r="15" ht="14.25" spans="1:10">
+      <c r="A15" s="9">
+        <v>300002</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="9">
         <v>1</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <v>300002</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>